--- a/PARRAIN AIN.xlsx
+++ b/PARRAIN AIN.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Parrainage_ISTCpolytechnique\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{552268CF-9970-4CD2-AFF7-5BEB0456B16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="755" xr2:uid="{0CE90DCD-EEF9-462F-AEE1-36BB8E3F4239}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="755"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="16" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,13 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
-  <si>
-    <t>N*</t>
-  </si>
-  <si>
-    <t>NOM ET  PRENOM</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>1</t>
   </si>
@@ -269,8 +262,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -281,12 +274,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="0"/>
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
@@ -318,13 +305,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="0"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Open Sans"/>
@@ -336,7 +316,7 @@
       <name val="Open Sans"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,18 +325,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -379,57 +353,38 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -640,1825 +595,1819 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A9EE42-C92C-4FF5-AF8A-861337911389}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B537"/>
+  <dimension ref="A1:C536"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="86" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C32" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="39.950000000000003" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.69921875" defaultRowHeight="39.950000000000003" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="24.3984375" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="10.69921875" style="5"/>
+    <col min="1" max="1" width="7.19921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.3984375" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="10.69921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:3" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:3" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:3" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:3" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:3" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:3" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:3" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:3" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:3" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:3" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:3" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:3" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:3" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:3" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:2" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:2" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:2" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:2" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:2" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:2" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:2" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A23" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:2" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A24" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:2" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A25" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:2" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A26" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:2" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A27" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:2" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A28" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:2" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A29" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:2" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A30" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:2" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A31" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:2" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A32" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:3" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A33" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:3" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A34" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A35" s="11" t="s">
+    <row r="35" spans="1:3" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A35" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="39.950000000000003" customHeight="1">
-      <c r="A36" s="11" t="s">
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A36" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="39.950000000000003" customHeight="1">
-      <c r="A37" s="11" t="s">
+    <row r="37" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="A37" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="39.950000000000003" customHeight="1">
-      <c r="A38" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="39.950000000000003" customHeight="1">
-      <c r="B39" s="4"/>
-    </row>
-    <row r="40" spans="1:2" ht="39.950000000000003" customHeight="1">
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="1:2" ht="39.950000000000003" customHeight="1">
-      <c r="B41" s="4"/>
-    </row>
-    <row r="42" spans="1:2" ht="39.950000000000003" customHeight="1">
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="1:2" ht="39.950000000000003" customHeight="1">
-      <c r="B43" s="4"/>
-    </row>
-    <row r="44" spans="1:2" ht="39.950000000000003" customHeight="1">
-      <c r="B44" s="4"/>
-    </row>
-    <row r="45" spans="1:2" ht="39.950000000000003" customHeight="1">
-      <c r="B45" s="4"/>
-    </row>
-    <row r="46" spans="1:2" ht="39.950000000000003" customHeight="1">
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="1:2" ht="39.950000000000003" customHeight="1">
-      <c r="B47" s="4"/>
-    </row>
-    <row r="48" spans="1:2" ht="39.950000000000003" customHeight="1">
-      <c r="B48" s="4"/>
+    <row r="38" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:3" ht="39.950000000000003" customHeight="1">
+      <c r="B48" s="3"/>
     </row>
     <row r="49" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B49" s="4"/>
+      <c r="B49" s="3"/>
     </row>
     <row r="50" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B50" s="4"/>
+      <c r="B50" s="3"/>
     </row>
     <row r="51" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B51" s="4"/>
+      <c r="B51" s="3"/>
     </row>
     <row r="52" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B52" s="4"/>
+      <c r="B52" s="3"/>
     </row>
     <row r="53" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B53" s="4"/>
+      <c r="B53" s="3"/>
     </row>
     <row r="54" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B54" s="4"/>
+      <c r="B54" s="3"/>
     </row>
     <row r="55" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B55" s="4"/>
+      <c r="B55" s="3"/>
     </row>
     <row r="56" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B56" s="4"/>
+      <c r="B56" s="3"/>
     </row>
     <row r="57" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B57" s="4"/>
+      <c r="B57" s="3"/>
     </row>
     <row r="58" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B58" s="4"/>
+      <c r="B58" s="3"/>
     </row>
     <row r="59" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B59" s="4"/>
+      <c r="B59" s="3"/>
     </row>
     <row r="60" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B60" s="4"/>
+      <c r="B60" s="3"/>
     </row>
     <row r="61" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B61" s="4"/>
+      <c r="B61" s="3"/>
     </row>
     <row r="62" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B62" s="4"/>
+      <c r="B62" s="3"/>
     </row>
     <row r="63" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B63" s="4"/>
+      <c r="B63" s="3"/>
     </row>
     <row r="64" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B64" s="4"/>
+      <c r="B64" s="3"/>
     </row>
     <row r="65" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B65" s="4"/>
+      <c r="B65" s="3"/>
     </row>
     <row r="66" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B66" s="4"/>
+      <c r="B66" s="3"/>
     </row>
     <row r="67" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B67" s="4"/>
+      <c r="B67" s="3"/>
     </row>
     <row r="68" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B68" s="4"/>
+      <c r="B68" s="3"/>
     </row>
     <row r="69" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B69" s="4"/>
+      <c r="B69" s="3"/>
     </row>
     <row r="70" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B70" s="4"/>
+      <c r="B70" s="3"/>
     </row>
     <row r="71" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B71" s="4"/>
+      <c r="B71" s="3"/>
     </row>
     <row r="72" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B72" s="4"/>
+      <c r="B72" s="3"/>
     </row>
     <row r="73" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B73" s="4"/>
+      <c r="B73" s="3"/>
     </row>
     <row r="74" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B74" s="4"/>
+      <c r="B74" s="3"/>
     </row>
     <row r="75" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B75" s="4"/>
+      <c r="B75" s="3"/>
     </row>
     <row r="76" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B76" s="4"/>
+      <c r="B76" s="3"/>
     </row>
     <row r="77" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B77" s="4"/>
+      <c r="B77" s="3"/>
     </row>
     <row r="78" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B78" s="4"/>
+      <c r="B78" s="3"/>
     </row>
     <row r="79" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B79" s="4"/>
+      <c r="B79" s="3"/>
     </row>
     <row r="80" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B80" s="4"/>
+      <c r="B80" s="3"/>
     </row>
     <row r="81" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B81" s="4"/>
+      <c r="B81" s="3"/>
     </row>
     <row r="82" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B82" s="4"/>
+      <c r="B82" s="3"/>
     </row>
     <row r="83" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B83" s="4"/>
+      <c r="B83" s="3"/>
     </row>
     <row r="84" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B84" s="4"/>
+      <c r="B84" s="3"/>
     </row>
     <row r="85" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B85" s="4"/>
+      <c r="B85" s="3"/>
     </row>
     <row r="86" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B86" s="4"/>
+      <c r="B86" s="3"/>
     </row>
     <row r="87" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B87" s="4"/>
+      <c r="B87" s="3"/>
     </row>
     <row r="88" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B88" s="4"/>
+      <c r="B88" s="3"/>
     </row>
     <row r="89" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B89" s="4"/>
+      <c r="B89" s="3"/>
     </row>
     <row r="90" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B90" s="4"/>
+      <c r="B90" s="3"/>
     </row>
     <row r="91" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B91" s="4"/>
+      <c r="B91" s="3"/>
     </row>
     <row r="92" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B92" s="4"/>
+      <c r="B92" s="3"/>
     </row>
     <row r="93" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B93" s="4"/>
+      <c r="B93" s="3"/>
     </row>
     <row r="94" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B94" s="4"/>
+      <c r="B94" s="3"/>
     </row>
     <row r="95" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B95" s="4"/>
+      <c r="B95" s="3"/>
     </row>
     <row r="96" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B96" s="4"/>
+      <c r="B96" s="3"/>
     </row>
     <row r="97" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B97" s="4"/>
+      <c r="B97" s="3"/>
     </row>
     <row r="98" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B98" s="4"/>
+      <c r="B98" s="3"/>
     </row>
     <row r="99" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B99" s="4"/>
+      <c r="B99" s="3"/>
     </row>
     <row r="100" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B100" s="4"/>
+      <c r="B100" s="3"/>
     </row>
     <row r="101" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B101" s="4"/>
+      <c r="B101" s="3"/>
     </row>
     <row r="102" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B102" s="4"/>
+      <c r="B102" s="3"/>
     </row>
     <row r="103" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B103" s="4"/>
+      <c r="B103" s="3"/>
     </row>
     <row r="104" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B104" s="4"/>
+      <c r="B104" s="3"/>
     </row>
     <row r="105" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B105" s="4"/>
+      <c r="B105" s="3"/>
     </row>
     <row r="106" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B106" s="4"/>
+      <c r="B106" s="3"/>
     </row>
     <row r="107" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B107" s="4"/>
+      <c r="B107" s="3"/>
     </row>
     <row r="108" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B108" s="4"/>
+      <c r="B108" s="3"/>
     </row>
     <row r="109" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B109" s="4"/>
+      <c r="B109" s="3"/>
     </row>
     <row r="110" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B110" s="4"/>
+      <c r="B110" s="3"/>
     </row>
     <row r="111" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B111" s="4"/>
+      <c r="B111" s="3"/>
     </row>
     <row r="112" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B112" s="4"/>
+      <c r="B112" s="3"/>
     </row>
     <row r="113" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B113" s="4"/>
+      <c r="B113" s="3"/>
     </row>
     <row r="114" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B114" s="4"/>
+      <c r="B114" s="3"/>
     </row>
     <row r="115" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B115" s="4"/>
+      <c r="B115" s="3"/>
     </row>
     <row r="116" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B116" s="4"/>
+      <c r="B116" s="3"/>
     </row>
     <row r="117" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B117" s="4"/>
+      <c r="B117" s="3"/>
     </row>
     <row r="118" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B118" s="4"/>
+      <c r="B118" s="3"/>
     </row>
     <row r="119" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B119" s="4"/>
+      <c r="B119" s="3"/>
     </row>
     <row r="120" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B120" s="4"/>
+      <c r="B120" s="3"/>
     </row>
     <row r="121" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B121" s="4"/>
+      <c r="B121" s="3"/>
     </row>
     <row r="122" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B122" s="4"/>
+      <c r="B122" s="3"/>
     </row>
     <row r="123" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B123" s="4"/>
+      <c r="B123" s="3"/>
     </row>
     <row r="124" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B124" s="4"/>
+      <c r="B124" s="3"/>
     </row>
     <row r="125" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B125" s="4"/>
+      <c r="B125" s="3"/>
     </row>
     <row r="126" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B126" s="4"/>
+      <c r="B126" s="3"/>
     </row>
     <row r="127" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B127" s="4"/>
+      <c r="B127" s="3"/>
     </row>
     <row r="128" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B128" s="4"/>
+      <c r="B128" s="3"/>
     </row>
     <row r="129" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B129" s="4"/>
+      <c r="B129" s="3"/>
     </row>
     <row r="130" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B130" s="4"/>
+      <c r="B130" s="3"/>
     </row>
     <row r="131" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B131" s="4"/>
+      <c r="B131" s="3"/>
     </row>
     <row r="132" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B132" s="4"/>
+      <c r="B132" s="3"/>
     </row>
     <row r="133" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B133" s="4"/>
+      <c r="B133" s="3"/>
     </row>
     <row r="134" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B134" s="4"/>
+      <c r="B134" s="3"/>
     </row>
     <row r="135" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B135" s="4"/>
+      <c r="B135" s="3"/>
     </row>
     <row r="136" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B136" s="4"/>
+      <c r="B136" s="3"/>
     </row>
     <row r="137" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B137" s="4"/>
+      <c r="B137" s="3"/>
     </row>
     <row r="138" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B138" s="4"/>
+      <c r="B138" s="3"/>
     </row>
     <row r="139" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B139" s="4"/>
+      <c r="B139" s="3"/>
     </row>
     <row r="140" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B140" s="4"/>
+      <c r="B140" s="3"/>
     </row>
     <row r="141" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B141" s="4"/>
+      <c r="B141" s="3"/>
     </row>
     <row r="142" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B142" s="4"/>
+      <c r="B142" s="3"/>
     </row>
     <row r="143" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B143" s="4"/>
+      <c r="B143" s="3"/>
     </row>
     <row r="144" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B144" s="4"/>
+      <c r="B144" s="3"/>
     </row>
     <row r="145" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B145" s="4"/>
+      <c r="B145" s="3"/>
     </row>
     <row r="146" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B146" s="4"/>
+      <c r="B146" s="3"/>
     </row>
     <row r="147" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B147" s="4"/>
+      <c r="B147" s="3"/>
     </row>
     <row r="148" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B148" s="4"/>
+      <c r="B148" s="3"/>
     </row>
     <row r="149" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B149" s="4"/>
+      <c r="B149" s="3"/>
     </row>
     <row r="150" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B150" s="4"/>
+      <c r="B150" s="3"/>
     </row>
     <row r="151" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B151" s="4"/>
+      <c r="B151" s="3"/>
     </row>
     <row r="152" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B152" s="4"/>
+      <c r="B152" s="3"/>
     </row>
     <row r="153" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B153" s="4"/>
+      <c r="B153" s="3"/>
     </row>
     <row r="154" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B154" s="4"/>
+      <c r="B154" s="3"/>
     </row>
     <row r="155" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B155" s="4"/>
+      <c r="B155" s="3"/>
     </row>
     <row r="156" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B156" s="4"/>
+      <c r="B156" s="3"/>
     </row>
     <row r="157" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B157" s="4"/>
+      <c r="B157" s="3"/>
     </row>
     <row r="158" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B158" s="4"/>
+      <c r="B158" s="3"/>
     </row>
     <row r="159" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B159" s="4"/>
+      <c r="B159" s="3"/>
     </row>
     <row r="160" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B160" s="4"/>
+      <c r="B160" s="3"/>
     </row>
     <row r="161" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B161" s="4"/>
+      <c r="B161" s="3"/>
     </row>
     <row r="162" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B162" s="4"/>
+      <c r="B162" s="3"/>
     </row>
     <row r="163" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B163" s="4"/>
+      <c r="B163" s="3"/>
     </row>
     <row r="164" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B164" s="4"/>
+      <c r="B164" s="3"/>
     </row>
     <row r="165" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B165" s="4"/>
+      <c r="B165" s="3"/>
     </row>
     <row r="166" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B166" s="4"/>
+      <c r="B166" s="3"/>
     </row>
     <row r="167" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B167" s="4"/>
+      <c r="B167" s="3"/>
     </row>
     <row r="168" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B168" s="4"/>
+      <c r="B168" s="3"/>
     </row>
     <row r="169" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B169" s="4"/>
+      <c r="B169" s="3"/>
     </row>
     <row r="170" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B170" s="4"/>
+      <c r="B170" s="3"/>
     </row>
     <row r="171" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B171" s="4"/>
+      <c r="B171" s="3"/>
     </row>
     <row r="172" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B172" s="4"/>
+      <c r="B172" s="3"/>
     </row>
     <row r="173" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B173" s="4"/>
+      <c r="B173" s="3"/>
     </row>
     <row r="174" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B174" s="4"/>
+      <c r="B174" s="3"/>
     </row>
     <row r="175" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B175" s="4"/>
+      <c r="B175" s="3"/>
     </row>
     <row r="176" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B176" s="4"/>
+      <c r="B176" s="3"/>
     </row>
     <row r="177" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B177" s="4"/>
+      <c r="B177" s="3"/>
     </row>
     <row r="178" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B178" s="4"/>
+      <c r="B178" s="3"/>
     </row>
     <row r="179" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B179" s="4"/>
+      <c r="B179" s="3"/>
     </row>
     <row r="180" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B180" s="4"/>
+      <c r="B180" s="3"/>
     </row>
     <row r="181" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B181" s="4"/>
+      <c r="B181" s="3"/>
     </row>
     <row r="182" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B182" s="4"/>
+      <c r="B182" s="3"/>
     </row>
     <row r="183" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B183" s="4"/>
+      <c r="B183" s="3"/>
     </row>
     <row r="184" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B184" s="4"/>
+      <c r="B184" s="3"/>
     </row>
     <row r="185" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B185" s="4"/>
+      <c r="B185" s="3"/>
     </row>
     <row r="186" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B186" s="4"/>
+      <c r="B186" s="3"/>
     </row>
     <row r="187" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B187" s="4"/>
+      <c r="B187" s="3"/>
     </row>
     <row r="188" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B188" s="4"/>
+      <c r="B188" s="3"/>
     </row>
     <row r="189" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B189" s="4"/>
+      <c r="B189" s="3"/>
     </row>
     <row r="190" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B190" s="4"/>
+      <c r="B190" s="3"/>
     </row>
     <row r="191" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B191" s="4"/>
+      <c r="B191" s="3"/>
     </row>
     <row r="192" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B192" s="4"/>
+      <c r="B192" s="3"/>
     </row>
     <row r="193" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B193" s="4"/>
+      <c r="B193" s="3"/>
     </row>
     <row r="194" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B194" s="4"/>
+      <c r="B194" s="3"/>
     </row>
     <row r="195" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B195" s="4"/>
+      <c r="B195" s="3"/>
     </row>
     <row r="196" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B196" s="4"/>
+      <c r="B196" s="3"/>
     </row>
     <row r="197" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B197" s="4"/>
+      <c r="B197" s="3"/>
     </row>
     <row r="198" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B198" s="4"/>
+      <c r="B198" s="3"/>
     </row>
     <row r="199" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B199" s="4"/>
+      <c r="B199" s="3"/>
     </row>
     <row r="200" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B200" s="4"/>
+      <c r="B200" s="3"/>
     </row>
     <row r="201" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B201" s="4"/>
+      <c r="B201" s="3"/>
     </row>
     <row r="202" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B202" s="4"/>
+      <c r="B202" s="3"/>
     </row>
     <row r="203" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B203" s="4"/>
+      <c r="B203" s="3"/>
     </row>
     <row r="204" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B204" s="4"/>
+      <c r="B204" s="3"/>
     </row>
     <row r="205" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B205" s="4"/>
+      <c r="B205" s="3"/>
     </row>
     <row r="206" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B206" s="4"/>
+      <c r="B206" s="3"/>
     </row>
     <row r="207" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B207" s="4"/>
+      <c r="B207" s="3"/>
     </row>
     <row r="208" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B208" s="4"/>
+      <c r="B208" s="3"/>
     </row>
     <row r="209" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B209" s="4"/>
+      <c r="B209" s="3"/>
     </row>
     <row r="210" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B210" s="4"/>
+      <c r="B210" s="3"/>
     </row>
     <row r="211" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B211" s="4"/>
+      <c r="B211" s="3"/>
     </row>
     <row r="212" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B212" s="4"/>
+      <c r="B212" s="3"/>
     </row>
     <row r="213" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B213" s="4"/>
+      <c r="B213" s="3"/>
     </row>
     <row r="214" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B214" s="4"/>
+      <c r="B214" s="3"/>
     </row>
     <row r="215" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B215" s="4"/>
+      <c r="B215" s="3"/>
     </row>
     <row r="216" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B216" s="4"/>
+      <c r="B216" s="3"/>
     </row>
     <row r="217" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B217" s="4"/>
+      <c r="B217" s="3"/>
     </row>
     <row r="218" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B218" s="4"/>
+      <c r="B218" s="3"/>
     </row>
     <row r="219" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B219" s="4"/>
+      <c r="B219" s="3"/>
     </row>
     <row r="220" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B220" s="4"/>
+      <c r="B220" s="3"/>
     </row>
     <row r="221" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B221" s="4"/>
+      <c r="B221" s="3"/>
     </row>
     <row r="222" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B222" s="4"/>
+      <c r="B222" s="3"/>
     </row>
     <row r="223" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B223" s="4"/>
+      <c r="B223" s="3"/>
     </row>
     <row r="224" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B224" s="4"/>
+      <c r="B224" s="3"/>
     </row>
     <row r="225" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B225" s="4"/>
+      <c r="B225" s="3"/>
     </row>
     <row r="226" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B226" s="4"/>
+      <c r="B226" s="3"/>
     </row>
     <row r="227" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B227" s="4"/>
+      <c r="B227" s="3"/>
     </row>
     <row r="228" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B228" s="4"/>
+      <c r="B228" s="3"/>
     </row>
     <row r="229" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B229" s="4"/>
+      <c r="B229" s="3"/>
     </row>
     <row r="230" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B230" s="4"/>
+      <c r="B230" s="3"/>
     </row>
     <row r="231" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B231" s="4"/>
+      <c r="B231" s="3"/>
     </row>
     <row r="232" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B232" s="4"/>
+      <c r="B232" s="3"/>
     </row>
     <row r="233" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B233" s="4"/>
+      <c r="B233" s="3"/>
     </row>
     <row r="234" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B234" s="4"/>
+      <c r="B234" s="3"/>
     </row>
     <row r="235" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B235" s="4"/>
+      <c r="B235" s="3"/>
     </row>
     <row r="236" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B236" s="4"/>
+      <c r="B236" s="3"/>
     </row>
     <row r="237" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B237" s="4"/>
+      <c r="B237" s="3"/>
     </row>
     <row r="238" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B238" s="4"/>
+      <c r="B238" s="3"/>
     </row>
     <row r="239" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B239" s="4"/>
+      <c r="B239" s="3"/>
     </row>
     <row r="240" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B240" s="4"/>
+      <c r="B240" s="3"/>
     </row>
     <row r="241" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B241" s="4"/>
+      <c r="B241" s="3"/>
     </row>
     <row r="242" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B242" s="4"/>
+      <c r="B242" s="3"/>
     </row>
     <row r="243" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B243" s="4"/>
+      <c r="B243" s="3"/>
     </row>
     <row r="244" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B244" s="4"/>
+      <c r="B244" s="3"/>
     </row>
     <row r="245" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B245" s="4"/>
+      <c r="B245" s="3"/>
     </row>
     <row r="246" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B246" s="4"/>
+      <c r="B246" s="3"/>
     </row>
     <row r="247" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B247" s="4"/>
+      <c r="B247" s="3"/>
     </row>
     <row r="248" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B248" s="4"/>
+      <c r="B248" s="3"/>
     </row>
     <row r="249" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B249" s="4"/>
+      <c r="B249" s="3"/>
     </row>
     <row r="250" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B250" s="4"/>
+      <c r="B250" s="3"/>
     </row>
     <row r="251" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B251" s="4"/>
+      <c r="B251" s="3"/>
     </row>
     <row r="252" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B252" s="4"/>
+      <c r="B252" s="3"/>
     </row>
     <row r="253" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B253" s="4"/>
+      <c r="B253" s="3"/>
     </row>
     <row r="254" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B254" s="4"/>
+      <c r="B254" s="3"/>
     </row>
     <row r="255" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B255" s="4"/>
+      <c r="B255" s="3"/>
     </row>
     <row r="256" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B256" s="4"/>
+      <c r="B256" s="3"/>
     </row>
     <row r="257" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B257" s="4"/>
+      <c r="B257" s="3"/>
     </row>
     <row r="258" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B258" s="4"/>
+      <c r="B258" s="3"/>
     </row>
     <row r="259" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B259" s="4"/>
+      <c r="B259" s="3"/>
     </row>
     <row r="260" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B260" s="4"/>
+      <c r="B260" s="3"/>
     </row>
     <row r="261" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B261" s="4"/>
+      <c r="B261" s="3"/>
     </row>
     <row r="262" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B262" s="4"/>
+      <c r="B262" s="3"/>
     </row>
     <row r="263" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B263" s="4"/>
+      <c r="B263" s="3"/>
     </row>
     <row r="264" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B264" s="4"/>
+      <c r="B264" s="3"/>
     </row>
     <row r="265" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B265" s="4"/>
+      <c r="B265" s="3"/>
     </row>
     <row r="266" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B266" s="4"/>
+      <c r="B266" s="3"/>
     </row>
     <row r="267" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B267" s="4"/>
+      <c r="B267" s="3"/>
     </row>
     <row r="268" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B268" s="4"/>
+      <c r="B268" s="3"/>
     </row>
     <row r="269" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B269" s="4"/>
+      <c r="B269" s="3"/>
     </row>
     <row r="270" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B270" s="4"/>
+      <c r="B270" s="3"/>
     </row>
     <row r="271" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B271" s="4"/>
+      <c r="B271" s="3"/>
     </row>
     <row r="272" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B272" s="4"/>
+      <c r="B272" s="3"/>
     </row>
     <row r="273" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B273" s="4"/>
+      <c r="B273" s="3"/>
     </row>
     <row r="274" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B274" s="4"/>
+      <c r="B274" s="3"/>
     </row>
     <row r="275" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B275" s="4"/>
+      <c r="B275" s="3"/>
     </row>
     <row r="276" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B276" s="4"/>
+      <c r="B276" s="3"/>
     </row>
     <row r="277" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B277" s="4"/>
+      <c r="B277" s="3"/>
     </row>
     <row r="278" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B278" s="4"/>
+      <c r="B278" s="3"/>
     </row>
     <row r="279" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B279" s="4"/>
+      <c r="B279" s="3"/>
     </row>
     <row r="280" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B280" s="4"/>
+      <c r="B280" s="3"/>
     </row>
     <row r="281" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B281" s="4"/>
+      <c r="B281" s="3"/>
     </row>
     <row r="282" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B282" s="4"/>
+      <c r="B282" s="3"/>
     </row>
     <row r="283" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B283" s="4"/>
+      <c r="B283" s="3"/>
     </row>
     <row r="284" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B284" s="4"/>
+      <c r="B284" s="3"/>
     </row>
     <row r="285" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B285" s="4"/>
+      <c r="B285" s="3"/>
     </row>
     <row r="286" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B286" s="4"/>
+      <c r="B286" s="3"/>
     </row>
     <row r="287" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B287" s="4"/>
+      <c r="B287" s="3"/>
     </row>
     <row r="288" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B288" s="4"/>
+      <c r="B288" s="3"/>
     </row>
     <row r="289" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B289" s="4"/>
+      <c r="B289" s="3"/>
     </row>
     <row r="290" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B290" s="4"/>
+      <c r="B290" s="3"/>
     </row>
     <row r="291" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B291" s="4"/>
+      <c r="B291" s="3"/>
     </row>
     <row r="292" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B292" s="4"/>
+      <c r="B292" s="3"/>
     </row>
     <row r="293" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B293" s="4"/>
+      <c r="B293" s="3"/>
     </row>
     <row r="294" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B294" s="4"/>
+      <c r="B294" s="3"/>
     </row>
     <row r="295" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B295" s="4"/>
+      <c r="B295" s="3"/>
     </row>
     <row r="296" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B296" s="4"/>
+      <c r="B296" s="3"/>
     </row>
     <row r="297" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B297" s="4"/>
+      <c r="B297" s="3"/>
     </row>
     <row r="298" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B298" s="4"/>
+      <c r="B298" s="3"/>
     </row>
     <row r="299" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B299" s="4"/>
+      <c r="B299" s="3"/>
     </row>
     <row r="300" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B300" s="4"/>
+      <c r="B300" s="3"/>
     </row>
     <row r="301" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B301" s="4"/>
+      <c r="B301" s="3"/>
     </row>
     <row r="302" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B302" s="4"/>
+      <c r="B302" s="3"/>
     </row>
     <row r="303" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B303" s="4"/>
+      <c r="B303" s="3"/>
     </row>
     <row r="304" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B304" s="4"/>
+      <c r="B304" s="3"/>
     </row>
     <row r="305" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B305" s="4"/>
+      <c r="B305" s="3"/>
     </row>
     <row r="306" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B306" s="4"/>
+      <c r="B306" s="3"/>
     </row>
     <row r="307" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B307" s="4"/>
+      <c r="B307" s="3"/>
     </row>
     <row r="308" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B308" s="4"/>
+      <c r="B308" s="3"/>
     </row>
     <row r="309" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B309" s="4"/>
+      <c r="B309" s="3"/>
     </row>
     <row r="310" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B310" s="4"/>
+      <c r="B310" s="3"/>
     </row>
     <row r="311" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B311" s="4"/>
+      <c r="B311" s="3"/>
     </row>
     <row r="312" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B312" s="4"/>
+      <c r="B312" s="3"/>
     </row>
     <row r="313" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B313" s="4"/>
+      <c r="B313" s="3"/>
     </row>
     <row r="314" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B314" s="4"/>
+      <c r="B314" s="3"/>
     </row>
     <row r="315" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B315" s="4"/>
+      <c r="B315" s="3"/>
     </row>
     <row r="316" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B316" s="4"/>
+      <c r="B316" s="3"/>
     </row>
     <row r="317" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B317" s="4"/>
+      <c r="B317" s="3"/>
     </row>
     <row r="318" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B318" s="4"/>
+      <c r="B318" s="3"/>
     </row>
     <row r="319" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B319" s="4"/>
+      <c r="B319" s="3"/>
     </row>
     <row r="320" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B320" s="4"/>
+      <c r="B320" s="3"/>
     </row>
     <row r="321" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B321" s="4"/>
+      <c r="B321" s="3"/>
     </row>
     <row r="322" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B322" s="4"/>
+      <c r="B322" s="3"/>
     </row>
     <row r="323" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B323" s="4"/>
+      <c r="B323" s="3"/>
     </row>
     <row r="324" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B324" s="4"/>
+      <c r="B324" s="3"/>
     </row>
     <row r="325" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B325" s="4"/>
+      <c r="B325" s="3"/>
     </row>
     <row r="326" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B326" s="4"/>
+      <c r="B326" s="3"/>
     </row>
     <row r="327" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B327" s="4"/>
+      <c r="B327" s="3"/>
     </row>
     <row r="328" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B328" s="4"/>
+      <c r="B328" s="3"/>
     </row>
     <row r="329" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B329" s="4"/>
+      <c r="B329" s="3"/>
     </row>
     <row r="330" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B330" s="4"/>
+      <c r="B330" s="3"/>
     </row>
     <row r="331" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B331" s="4"/>
+      <c r="B331" s="3"/>
     </row>
     <row r="332" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B332" s="4"/>
+      <c r="B332" s="3"/>
     </row>
     <row r="333" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B333" s="4"/>
+      <c r="B333" s="3"/>
     </row>
     <row r="334" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B334" s="4"/>
+      <c r="B334" s="3"/>
     </row>
     <row r="335" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B335" s="4"/>
+      <c r="B335" s="3"/>
     </row>
     <row r="336" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B336" s="4"/>
+      <c r="B336" s="3"/>
     </row>
     <row r="337" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B337" s="4"/>
+      <c r="B337" s="3"/>
     </row>
     <row r="338" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B338" s="4"/>
+      <c r="B338" s="3"/>
     </row>
     <row r="339" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B339" s="4"/>
+      <c r="B339" s="3"/>
     </row>
     <row r="340" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B340" s="4"/>
+      <c r="B340" s="3"/>
     </row>
     <row r="341" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B341" s="4"/>
+      <c r="B341" s="3"/>
     </row>
     <row r="342" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B342" s="4"/>
+      <c r="B342" s="3"/>
     </row>
     <row r="343" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B343" s="4"/>
+      <c r="B343" s="3"/>
     </row>
     <row r="344" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B344" s="4"/>
+      <c r="B344" s="3"/>
     </row>
     <row r="345" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B345" s="4"/>
+      <c r="B345" s="3"/>
     </row>
     <row r="346" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B346" s="4"/>
+      <c r="B346" s="3"/>
     </row>
     <row r="347" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B347" s="4"/>
+      <c r="B347" s="3"/>
     </row>
     <row r="348" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B348" s="4"/>
+      <c r="B348" s="3"/>
     </row>
     <row r="349" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B349" s="4"/>
+      <c r="B349" s="3"/>
     </row>
     <row r="350" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B350" s="4"/>
+      <c r="B350" s="3"/>
     </row>
     <row r="351" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B351" s="4"/>
+      <c r="B351" s="3"/>
     </row>
     <row r="352" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B352" s="4"/>
+      <c r="B352" s="3"/>
     </row>
     <row r="353" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B353" s="4"/>
+      <c r="B353" s="3"/>
     </row>
     <row r="354" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B354" s="4"/>
+      <c r="B354" s="3"/>
     </row>
     <row r="355" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B355" s="4"/>
+      <c r="B355" s="3"/>
     </row>
     <row r="356" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B356" s="4"/>
+      <c r="B356" s="3"/>
     </row>
     <row r="357" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B357" s="4"/>
+      <c r="B357" s="3"/>
     </row>
     <row r="358" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B358" s="4"/>
+      <c r="B358" s="3"/>
     </row>
     <row r="359" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B359" s="4"/>
+      <c r="B359" s="3"/>
     </row>
     <row r="360" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B360" s="4"/>
+      <c r="B360" s="3"/>
     </row>
     <row r="361" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B361" s="4"/>
+      <c r="B361" s="3"/>
     </row>
     <row r="362" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B362" s="4"/>
+      <c r="B362" s="3"/>
     </row>
     <row r="363" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B363" s="4"/>
+      <c r="B363" s="3"/>
     </row>
     <row r="364" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B364" s="4"/>
+      <c r="B364" s="3"/>
     </row>
     <row r="365" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B365" s="4"/>
+      <c r="B365" s="3"/>
     </row>
     <row r="366" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B366" s="4"/>
+      <c r="B366" s="3"/>
     </row>
     <row r="367" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B367" s="4"/>
+      <c r="B367" s="3"/>
     </row>
     <row r="368" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B368" s="4"/>
+      <c r="B368" s="3"/>
     </row>
     <row r="369" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B369" s="4"/>
+      <c r="B369" s="3"/>
     </row>
     <row r="370" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B370" s="4"/>
+      <c r="B370" s="3"/>
     </row>
     <row r="371" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B371" s="4"/>
+      <c r="B371" s="3"/>
     </row>
     <row r="372" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B372" s="4"/>
+      <c r="B372" s="3"/>
     </row>
     <row r="373" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B373" s="4"/>
+      <c r="B373" s="3"/>
     </row>
     <row r="374" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B374" s="4"/>
+      <c r="B374" s="3"/>
     </row>
     <row r="375" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B375" s="4"/>
+      <c r="B375" s="3"/>
     </row>
     <row r="376" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B376" s="4"/>
+      <c r="B376" s="3"/>
     </row>
     <row r="377" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B377" s="4"/>
+      <c r="B377" s="3"/>
     </row>
     <row r="378" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B378" s="4"/>
+      <c r="B378" s="3"/>
     </row>
     <row r="379" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B379" s="4"/>
+      <c r="B379" s="3"/>
     </row>
     <row r="380" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B380" s="4"/>
+      <c r="B380" s="3"/>
     </row>
     <row r="381" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B381" s="4"/>
+      <c r="B381" s="3"/>
     </row>
     <row r="382" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B382" s="4"/>
+      <c r="B382" s="3"/>
     </row>
     <row r="383" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B383" s="4"/>
+      <c r="B383" s="3"/>
     </row>
     <row r="384" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B384" s="4"/>
+      <c r="B384" s="3"/>
     </row>
     <row r="385" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B385" s="4"/>
+      <c r="B385" s="3"/>
     </row>
     <row r="386" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B386" s="4"/>
+      <c r="B386" s="3"/>
     </row>
     <row r="387" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B387" s="4"/>
+      <c r="B387" s="3"/>
     </row>
     <row r="388" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B388" s="4"/>
+      <c r="B388" s="3"/>
     </row>
     <row r="389" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B389" s="4"/>
+      <c r="B389" s="3"/>
     </row>
     <row r="390" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B390" s="4"/>
+      <c r="B390" s="3"/>
     </row>
     <row r="391" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B391" s="4"/>
+      <c r="B391" s="3"/>
     </row>
     <row r="392" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B392" s="4"/>
+      <c r="B392" s="3"/>
     </row>
     <row r="393" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B393" s="4"/>
+      <c r="B393" s="3"/>
     </row>
     <row r="394" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B394" s="4"/>
+      <c r="B394" s="3"/>
     </row>
     <row r="395" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B395" s="4"/>
+      <c r="B395" s="3"/>
     </row>
     <row r="396" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B396" s="4"/>
+      <c r="B396" s="3"/>
     </row>
     <row r="397" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B397" s="4"/>
+      <c r="B397" s="3"/>
     </row>
     <row r="398" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B398" s="4"/>
+      <c r="B398" s="3"/>
     </row>
     <row r="399" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B399" s="4"/>
+      <c r="B399" s="3"/>
     </row>
     <row r="400" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B400" s="4"/>
+      <c r="B400" s="3"/>
     </row>
     <row r="401" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B401" s="4"/>
+      <c r="B401" s="3"/>
     </row>
     <row r="402" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B402" s="4"/>
+      <c r="B402" s="3"/>
     </row>
     <row r="403" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B403" s="4"/>
+      <c r="B403" s="3"/>
     </row>
     <row r="404" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B404" s="4"/>
+      <c r="B404" s="3"/>
     </row>
     <row r="405" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B405" s="4"/>
+      <c r="B405" s="3"/>
     </row>
     <row r="406" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B406" s="4"/>
+      <c r="B406" s="3"/>
     </row>
     <row r="407" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B407" s="4"/>
+      <c r="B407" s="3"/>
     </row>
     <row r="408" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B408" s="4"/>
+      <c r="B408" s="3"/>
     </row>
     <row r="409" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B409" s="4"/>
+      <c r="B409" s="3"/>
     </row>
     <row r="410" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B410" s="4"/>
+      <c r="B410" s="3"/>
     </row>
     <row r="411" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B411" s="4"/>
+      <c r="B411" s="3"/>
     </row>
     <row r="412" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B412" s="4"/>
+      <c r="B412" s="3"/>
     </row>
     <row r="413" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B413" s="4"/>
+      <c r="B413" s="3"/>
     </row>
     <row r="414" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B414" s="4"/>
+      <c r="B414" s="3"/>
     </row>
     <row r="415" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B415" s="4"/>
+      <c r="B415" s="3"/>
     </row>
     <row r="416" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B416" s="4"/>
+      <c r="B416" s="3"/>
     </row>
     <row r="417" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B417" s="4"/>
+      <c r="B417" s="3"/>
     </row>
     <row r="418" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B418" s="4"/>
+      <c r="B418" s="3"/>
     </row>
     <row r="419" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B419" s="4"/>
+      <c r="B419" s="3"/>
     </row>
     <row r="420" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B420" s="4"/>
+      <c r="B420" s="3"/>
     </row>
     <row r="421" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B421" s="4"/>
+      <c r="B421" s="3"/>
     </row>
     <row r="422" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B422" s="4"/>
+      <c r="B422" s="3"/>
     </row>
     <row r="423" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B423" s="4"/>
+      <c r="B423" s="3"/>
     </row>
     <row r="424" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B424" s="4"/>
+      <c r="B424" s="3"/>
     </row>
     <row r="425" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B425" s="4"/>
+      <c r="B425" s="3"/>
     </row>
     <row r="426" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B426" s="4"/>
+      <c r="B426" s="3"/>
     </row>
     <row r="427" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B427" s="4"/>
+      <c r="B427" s="3"/>
     </row>
     <row r="428" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B428" s="4"/>
+      <c r="B428" s="3"/>
     </row>
     <row r="429" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B429" s="4"/>
+      <c r="B429" s="3"/>
     </row>
     <row r="430" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B430" s="4"/>
+      <c r="B430" s="3"/>
     </row>
     <row r="431" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B431" s="4"/>
+      <c r="B431" s="3"/>
     </row>
     <row r="432" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B432" s="4"/>
+      <c r="B432" s="3"/>
     </row>
     <row r="433" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B433" s="4"/>
+      <c r="B433" s="3"/>
     </row>
     <row r="434" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B434" s="4"/>
+      <c r="B434" s="3"/>
     </row>
     <row r="435" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B435" s="4"/>
+      <c r="B435" s="3"/>
     </row>
     <row r="436" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B436" s="4"/>
+      <c r="B436" s="3"/>
     </row>
     <row r="437" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B437" s="4"/>
+      <c r="B437" s="3"/>
     </row>
     <row r="438" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B438" s="4"/>
+      <c r="B438" s="3"/>
     </row>
     <row r="439" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B439" s="4"/>
+      <c r="B439" s="3"/>
     </row>
     <row r="440" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B440" s="4"/>
+      <c r="B440" s="3"/>
     </row>
     <row r="441" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B441" s="4"/>
+      <c r="B441" s="3"/>
     </row>
     <row r="442" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B442" s="4"/>
+      <c r="B442" s="3"/>
     </row>
     <row r="443" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B443" s="4"/>
+      <c r="B443" s="3"/>
     </row>
     <row r="444" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B444" s="4"/>
+      <c r="B444" s="3"/>
     </row>
     <row r="445" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B445" s="4"/>
+      <c r="B445" s="3"/>
     </row>
     <row r="446" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B446" s="4"/>
+      <c r="B446" s="3"/>
     </row>
     <row r="447" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B447" s="4"/>
+      <c r="B447" s="3"/>
     </row>
     <row r="448" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B448" s="4"/>
+      <c r="B448" s="3"/>
     </row>
     <row r="449" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B449" s="4"/>
+      <c r="B449" s="3"/>
     </row>
     <row r="450" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B450" s="4"/>
+      <c r="B450" s="3"/>
     </row>
     <row r="451" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B451" s="4"/>
+      <c r="B451" s="3"/>
     </row>
     <row r="452" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B452" s="4"/>
+      <c r="B452" s="3"/>
     </row>
     <row r="453" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B453" s="4"/>
+      <c r="B453" s="3"/>
     </row>
     <row r="454" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B454" s="4"/>
+      <c r="B454" s="3"/>
     </row>
     <row r="455" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B455" s="4"/>
+      <c r="B455" s="3"/>
     </row>
     <row r="456" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B456" s="4"/>
+      <c r="B456" s="3"/>
     </row>
     <row r="457" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B457" s="4"/>
+      <c r="B457" s="3"/>
     </row>
     <row r="458" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B458" s="4"/>
+      <c r="B458" s="3"/>
     </row>
     <row r="459" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B459" s="4"/>
+      <c r="B459" s="3"/>
     </row>
     <row r="460" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B460" s="4"/>
+      <c r="B460" s="3"/>
     </row>
     <row r="461" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B461" s="4"/>
+      <c r="B461" s="3"/>
     </row>
     <row r="462" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B462" s="4"/>
+      <c r="B462" s="3"/>
     </row>
     <row r="463" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B463" s="4"/>
+      <c r="B463" s="3"/>
     </row>
     <row r="464" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B464" s="4"/>
+      <c r="B464" s="3"/>
     </row>
     <row r="465" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B465" s="4"/>
+      <c r="B465" s="3"/>
     </row>
     <row r="466" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B466" s="4"/>
+      <c r="B466" s="3"/>
     </row>
     <row r="467" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B467" s="4"/>
+      <c r="B467" s="3"/>
     </row>
     <row r="468" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B468" s="4"/>
+      <c r="B468" s="3"/>
     </row>
     <row r="469" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B469" s="4"/>
+      <c r="B469" s="3"/>
     </row>
     <row r="470" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B470" s="4"/>
+      <c r="B470" s="3"/>
     </row>
     <row r="471" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B471" s="4"/>
+      <c r="B471" s="3"/>
     </row>
     <row r="472" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B472" s="4"/>
+      <c r="B472" s="3"/>
     </row>
     <row r="473" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B473" s="4"/>
+      <c r="B473" s="3"/>
     </row>
     <row r="474" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B474" s="4"/>
+      <c r="B474" s="3"/>
     </row>
     <row r="475" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B475" s="4"/>
+      <c r="B475" s="3"/>
     </row>
     <row r="476" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B476" s="4"/>
+      <c r="B476" s="3"/>
     </row>
     <row r="477" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B477" s="4"/>
+      <c r="B477" s="3"/>
     </row>
     <row r="478" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B478" s="4"/>
+      <c r="B478" s="3"/>
     </row>
     <row r="479" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B479" s="4"/>
+      <c r="B479" s="3"/>
     </row>
     <row r="480" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B480" s="4"/>
+      <c r="B480" s="3"/>
     </row>
     <row r="481" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B481" s="4"/>
+      <c r="B481" s="3"/>
     </row>
     <row r="482" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B482" s="4"/>
+      <c r="B482" s="3"/>
     </row>
     <row r="483" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B483" s="4"/>
+      <c r="B483" s="3"/>
     </row>
     <row r="484" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B484" s="4"/>
+      <c r="B484" s="3"/>
     </row>
     <row r="485" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B485" s="4"/>
+      <c r="B485" s="3"/>
     </row>
     <row r="486" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B486" s="4"/>
+      <c r="B486" s="3"/>
     </row>
     <row r="487" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B487" s="4"/>
+      <c r="B487" s="3"/>
     </row>
     <row r="488" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B488" s="4"/>
+      <c r="B488" s="3"/>
     </row>
     <row r="489" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B489" s="4"/>
+      <c r="B489" s="3"/>
     </row>
     <row r="490" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B490" s="4"/>
+      <c r="B490" s="3"/>
     </row>
     <row r="491" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B491" s="4"/>
+      <c r="B491" s="3"/>
     </row>
     <row r="492" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B492" s="4"/>
+      <c r="B492" s="3"/>
     </row>
     <row r="493" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B493" s="4"/>
+      <c r="B493" s="3"/>
     </row>
     <row r="494" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B494" s="4"/>
+      <c r="B494" s="3"/>
     </row>
     <row r="495" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B495" s="4"/>
+      <c r="B495" s="3"/>
     </row>
     <row r="496" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B496" s="4"/>
+      <c r="B496" s="3"/>
     </row>
     <row r="497" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B497" s="4"/>
+      <c r="B497" s="3"/>
     </row>
     <row r="498" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B498" s="4"/>
+      <c r="B498" s="3"/>
     </row>
     <row r="499" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B499" s="4"/>
+      <c r="B499" s="3"/>
     </row>
     <row r="500" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B500" s="4"/>
+      <c r="B500" s="3"/>
     </row>
     <row r="501" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B501" s="4"/>
+      <c r="B501" s="3"/>
     </row>
     <row r="502" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B502" s="4"/>
+      <c r="B502" s="3"/>
     </row>
     <row r="503" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B503" s="4"/>
+      <c r="B503" s="3"/>
     </row>
     <row r="504" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B504" s="4"/>
+      <c r="B504" s="3"/>
     </row>
     <row r="505" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B505" s="4"/>
+      <c r="B505" s="3"/>
     </row>
     <row r="506" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B506" s="4"/>
+      <c r="B506" s="3"/>
     </row>
     <row r="507" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B507" s="4"/>
+      <c r="B507" s="3"/>
     </row>
     <row r="508" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B508" s="4"/>
+      <c r="B508" s="3"/>
     </row>
     <row r="509" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B509" s="4"/>
+      <c r="B509" s="3"/>
     </row>
     <row r="510" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B510" s="4"/>
+      <c r="B510" s="3"/>
     </row>
     <row r="511" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B511" s="4"/>
+      <c r="B511" s="3"/>
     </row>
     <row r="512" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B512" s="4"/>
+      <c r="B512" s="3"/>
     </row>
     <row r="513" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B513" s="4"/>
+      <c r="B513" s="3"/>
     </row>
     <row r="514" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B514" s="4"/>
+      <c r="B514" s="3"/>
     </row>
     <row r="515" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B515" s="4"/>
+      <c r="B515" s="3"/>
     </row>
     <row r="516" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B516" s="4"/>
+      <c r="B516" s="3"/>
     </row>
     <row r="517" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B517" s="4"/>
+      <c r="B517" s="3"/>
     </row>
     <row r="518" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B518" s="4"/>
+      <c r="B518" s="3"/>
     </row>
     <row r="519" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B519" s="4"/>
+      <c r="B519" s="3"/>
     </row>
     <row r="520" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B520" s="4"/>
+      <c r="B520" s="3"/>
     </row>
     <row r="521" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B521" s="4"/>
+      <c r="B521" s="3"/>
     </row>
     <row r="522" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B522" s="4"/>
+      <c r="B522" s="3"/>
     </row>
     <row r="523" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B523" s="4"/>
+      <c r="B523" s="3"/>
     </row>
     <row r="524" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B524" s="4"/>
+      <c r="B524" s="3"/>
     </row>
     <row r="525" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B525" s="4"/>
+      <c r="B525" s="3"/>
     </row>
     <row r="526" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B526" s="4"/>
+      <c r="B526" s="3"/>
     </row>
     <row r="527" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B527" s="4"/>
+      <c r="B527" s="3"/>
     </row>
     <row r="528" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B528" s="4"/>
+      <c r="B528" s="3"/>
     </row>
     <row r="529" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B529" s="4"/>
+      <c r="B529" s="3"/>
     </row>
     <row r="530" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B530" s="4"/>
+      <c r="B530" s="3"/>
     </row>
     <row r="531" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B531" s="4"/>
+      <c r="B531" s="3"/>
     </row>
     <row r="532" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B532" s="4"/>
+      <c r="B532" s="3"/>
     </row>
     <row r="533" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B533" s="4"/>
+      <c r="B533" s="3"/>
     </row>
     <row r="534" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B534" s="4"/>
+      <c r="B534" s="3"/>
     </row>
     <row r="535" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B535" s="4"/>
+      <c r="B535" s="3"/>
     </row>
     <row r="536" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B536" s="4"/>
-    </row>
-    <row r="537" spans="2:2" ht="39.950000000000003" customHeight="1">
-      <c r="B537" s="4"/>
+      <c r="B536" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
